--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>5737270409.602288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.2168644949900922</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.856670012840754e-07</v>
+        <v>0.3885274076704844</v>
       </c>
       <c r="I2" t="n">
-        <v>2.041882806354099</v>
+        <v>2.368354712412736</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>10035054324.94216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.1448683188875891</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.131749779280406e-06</v>
+        <v>0.1414082902985753</v>
       </c>
       <c r="I3" t="n">
-        <v>2.048701100879245</v>
+        <v>6.380043480561878</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>4966146400.863405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.2990637025404219</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.900624162763839e-06</v>
+        <v>0.6706673311795828</v>
       </c>
       <c r="I4" t="n">
-        <v>2.039911116494073</v>
+        <v>6.517990366628081</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>4114718128.40687</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.3526710736226908</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8.097021595572179e-07</v>
+        <v>0.8546688565886262</v>
       </c>
       <c r="I5" t="n">
-        <v>2.036184978485108</v>
+        <v>6.368547906723028</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>6696526561.305602</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.1826700930402202</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.606599884479363e-06</v>
+        <v>0.2711588071925644</v>
       </c>
       <c r="I6" t="n">
-        <v>2.043215688069661</v>
+        <v>5.368432982743058</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>6011899385.316789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1956297061245689</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.528045540373833e-06</v>
+        <v>0.3156412827941312</v>
       </c>
       <c r="I7" t="n">
-        <v>2.04289001888699</v>
+        <v>1.958524636086123</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>3872599372.775558</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.3950121385532376</v>
       </c>
       <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.497737863488751e-06</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.042117717530992</v>
+        <v>6.713415121888535</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>7936575200.155078</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.146537912219023</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.828082271799247e-05</v>
+        <v>0.1471389895213587</v>
       </c>
       <c r="I9" t="n">
-        <v>2.043377881579929</v>
+        <v>5.104034784449502</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>8149124525.82418</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.1777519370835115</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5.364822745321768e-06</v>
+        <v>0.2542777667691274</v>
       </c>
       <c r="I10" t="n">
-        <v>2.038065401713054</v>
+        <v>6.357052332884177</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7571146766.899091</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1421936891656546</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.994154494157296e-06</v>
+        <v>0.1322279119512572</v>
       </c>
       <c r="I11" t="n">
-        <v>2.039467467202081</v>
+        <v>1.910090427914181</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>8889909550.702518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.1426094104523048</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>9.80279397870927e-07</v>
+        <v>0.1336548304765335</v>
       </c>
       <c r="I12" t="n">
-        <v>2.049439965354072</v>
+        <v>5.563857738003512</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>6140006533.046551</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.2017866696609599</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.377462932865679e-06</v>
+        <v>0.3367743967617085</v>
       </c>
       <c r="I13" t="n">
-        <v>2.04584108988444</v>
+        <v>2.476266550704347</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>3919787453.856198</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.3535031749328198</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.230607254979687e-07</v>
+        <v>0.8575249546823683</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04253936873542</v>
+        <v>6.081158560751772</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>5611866165.781663</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.2618518950006571</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.709446874937953e-06</v>
+        <v>0.5429418111193541</v>
       </c>
       <c r="I15" t="n">
-        <v>2.048104545805189</v>
+        <v>6.449016923594979</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>6206525621.994488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.251956718660492</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.288443527590256e-06</v>
+        <v>0.5089776844699113</v>
       </c>
       <c r="I16" t="n">
-        <v>2.04594399134318</v>
+        <v>6.862857581793588</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>6347102615.379009</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.182821964653349</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.244602389869938e-06</v>
+        <v>0.2716800901414921</v>
       </c>
       <c r="I17" t="n">
-        <v>2.052269453472561</v>
+        <v>1.864263802196149</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>8509629075.639911</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1434417092860431</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.151846739995964e-06</v>
+        <v>0.1365116065487829</v>
       </c>
       <c r="I18" t="n">
-        <v>2.052689213222928</v>
+        <v>5.356937408904208</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>11415130561.2031</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1151921804967434</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.372635657163477e-06</v>
+        <v>0.0395481426747431</v>
       </c>
       <c r="I19" t="n">
-        <v>2.033448669645521</v>
+        <v>5.770778067102816</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>9438786932.006359</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.1623453480874663</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.347219553031299e-07</v>
+        <v>0.2013963099957294</v>
       </c>
       <c r="I20" t="n">
-        <v>2.043890963660346</v>
+        <v>6.724910695727385</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>6263642902.286485</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.2258223564251501</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>9.59434873769971e-07</v>
+        <v>0.4192743018974737</v>
       </c>
       <c r="I21" t="n">
-        <v>2.040282048119439</v>
+        <v>6.207609872979124</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>8009079636.6267</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1792248029892957</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.83137642830644e-05</v>
+        <v>0.2593332202994143</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>6.299574463689926</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>9383649358.79331</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.133430861717643</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.093101358869211e-06</v>
+        <v>0.1021504508712144</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>5.494884294970411</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>10053274805.22024</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.1367892330254344</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9.549263378383017e-06</v>
+        <v>0.1136776985434651</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>6.035176265396371</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>10867785982.93351</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.1217167831679127</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>8.519964171842217e-07</v>
+        <v>0.06194313836182243</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>2.392022296229562</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>7456964511.707194</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1468298552689951</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.826667415719033e-06</v>
+        <v>0.1481410525855031</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>4.805149864639397</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>6315044844.077442</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.2318651800823291</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>8.676601818402729e-07</v>
+        <v>0.4400156430274542</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>6.426025775917279</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>8975724839.387936</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1284054068750388</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.336676732766631e-06</v>
+        <v>0.08490111858266844</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>5.058052489094101</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>5448262579.330823</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.2504839240269543</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.174488039243639e-06</v>
+        <v>0.5039224755739314</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>5.98919397004097</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>6641219612.079862</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.231915432701321</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.372253464945138e-06</v>
+        <v>0.4401881297277647</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>2.67653032758101</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>10727986511.45893</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.1372202676082416</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.267206154134613e-07</v>
+        <v>0.1151571783078966</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>6.46051249743383</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>4081904074.689082</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.2874851291279755</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2214912458378e-06</v>
+        <v>0.6309251254541579</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>5.150017079804903</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>8542596149.113552</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.1284766821282881</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.085820469769533e-05</v>
+        <v>0.08514576321002135</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>4.816645438478247</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>9755357584.027643</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1441887104479936</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.448058870902546e-06</v>
+        <v>0.1390756075528664</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>6.173123151462574</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>9499087155.196041</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1307063341682095</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>7.857452860875798e-06</v>
+        <v>0.09279880360715834</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>2.229246295643076</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>9323846617.833052</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.1657513431252878</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>7.922766984578527e-07</v>
+        <v>0.2130870209901748</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>6.782388564921636</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>8487735887.235232</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.1416514399096875</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.475403009779521e-06</v>
+        <v>0.1303666998038319</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>5.276468392032256</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>5210776995.308521</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.2055989943466326</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.606285077460625e-07</v>
+        <v>0.3498597904931379</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>4.701689700089744</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>7065555857.269779</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1649733684860307</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.012006881331733e-06</v>
+        <v>0.2104167068624186</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>1.982285240522941</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>4031374178.952949</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.3456676106314527</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.310855299420807e-07</v>
+        <v>0.8306302244468641</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>6.115645282268323</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>10243370683.97611</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.1250449436535287</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.089630267276351e-06</v>
+        <v>0.07336669064196751</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>5.621335607197762</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>8721569691.261814</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.1396556346067311</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>9.067941662025257e-07</v>
+        <v>0.1235163131359262</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>2.200335957042357</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>8684162805.56016</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1468930233762144</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.193040227943723e-06</v>
+        <v>0.148357870307598</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>5.598344459520062</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>6019606603.103605</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.2502072559398575</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.050856040923091e-06</v>
+        <v>0.5029728421740826</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>6.609954957338883</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>6861554079.84224</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.2282857792525063</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.663850962909397e-07</v>
+        <v>0.4277297353352633</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>6.874353155632438</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>5052563778.951624</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.2125554366030859</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.004968155697328e-06</v>
+        <v>0.3737370290289165</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>4.713185273928595</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>8914860125.807058</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1395658745557</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.432910535291939e-05</v>
+        <v>0.1232082214317992</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>5.46039757345386</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>10133252808.36648</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.1512192756836015</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.127574441600105e-06</v>
+        <v>0.1632072652283446</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>6.724910695727385</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>7149466223.164021</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.1612052654037077</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.435453581764744e-06</v>
+        <v>0.1974830990199091</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>5.058052489094101</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>5994977001.434152</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.2311363846214115</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.012818918147036e-05</v>
+        <v>0.437514131130625</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>6.081158560751772</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>5873304809.709928</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.2127335581041823</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>8.623851923464366e-07</v>
+        <v>0.3743484118900454</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>5.48338872113156</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>6941877827.55057</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.2018724161981503</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>3.813306158791617e-06</v>
+        <v>0.3370687125120063</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>6.150132003784874</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>5782882536.078989</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.2060948744098303</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.588291994606186e-06</v>
+        <v>0.3515618453823485</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>5.230486096676855</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>5683655116.359533</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.2548575943376031</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.08129785321069e-06</v>
+        <v>0.5189346276819052</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>6.357052332884177</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>5694134854.533188</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.2608287594062888</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.057973083263013e-06</v>
+        <v>0.5394300084276097</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>6.517990366628081</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>8375015641.066898</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.1832787669641248</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.087752709781539e-06</v>
+        <v>0.2732480148558776</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>6.736406269566236</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>6755751706.78186</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1616823230645811</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.401295630625779e-06</v>
+        <v>0.1991205480411279</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>4.793654290800546</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>10000400311.53458</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.1139389038942533</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.119800847966759e-06</v>
+        <v>0.03524640576875415</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>5.000574619899851</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>4627256912.435341</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.2943607467178933</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.900348287258666e-06</v>
+        <v>0.6545249420303632</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>5.97769839620212</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>5451346326.987852</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.2815749445968782</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.656279884713336e-05</v>
+        <v>0.6106390538334862</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>6.736406269566236</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>9568277677.248285</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.1105981238939477</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>7.307432003175497e-07</v>
+        <v>0.02377953836410389</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>4.644211830895493</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>8717861404.384506</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1727659089926007</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4494567556737e-06</v>
+        <v>0.237163762557804</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>6.609954957338883</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>5949422703.700788</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.2469950217331042</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.311063828304578e-06</v>
+        <v>0.4919471943558629</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>6.449016923594979</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>4530532131.279607</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.3018015412714472</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.51859429286818e-06</v>
+        <v>0.680064667640263</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>6.000689543879821</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>11375276776.62497</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1061546733070591</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.999077196295188e-06</v>
+        <v>0.008527872976288757</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>5.299459539709956</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>11157383777.85583</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.110340678828616</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.013602042269308e-06</v>
+        <v>0.02289588591531349</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>5.402919704259609</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>7664952132.967497</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.1568568190829038</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.425689841016484e-06</v>
+        <v>0.1825575255393638</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>5.276468392032256</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>7597941219.234826</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1537584861860319</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>8.77811842807602e-07</v>
+        <v>0.1719228316952178</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>5.127025932127203</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>4429845385.035028</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.3216699537220377</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.034805531205729e-06</v>
+        <v>0.7482608526901557</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>6.253592168334525</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>5461310843.311149</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.2431706907191581</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>8.399764468692749e-07</v>
+        <v>0.4788205901962357</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>2.735146236075353</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>7999091983.305262</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.1365512025964555</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>7.21571659350201e-06</v>
+        <v>0.1128606847421605</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>4.793654290800546</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>7598203872.180903</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1609926701859989</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>7.858149827109052e-07</v>
+        <v>0.1967533888408173</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>1.97332285977316</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>10514902426.83157</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1267980867418997</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.367949307475883e-06</v>
+        <v>0.07938416540351713</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>5.851247083974767</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>4207491534.958363</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.2820168882435416</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.484042997646173e-06</v>
+        <v>0.6121559777842261</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>5.207494948999154</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>6248602168.571862</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.2381034157500292</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>3.09232104759257e-06</v>
+        <v>0.4614277148292287</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>6.529485940466931</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>10014897222.07768</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1161279176621169</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>8.424444725787091e-07</v>
+        <v>0.04275995967555116</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>2.525013042497635</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>11327292187.87902</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.1202478736672408</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.010420201699639e-06</v>
+        <v>0.05690126476580741</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>2.865390337838067</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>10691894569.15644</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1171044487860849</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.261635407985587e-06</v>
+        <v>0.04611179754396227</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>1.994253235283694</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>6155403995.519485</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.1808558383511996</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.329818084327608e-06</v>
+        <v>0.2649315734461455</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>4.885618881511348</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>10209412458.1035</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1185335772226014</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>9.570652047873196e-07</v>
+        <v>0.05101712692340376</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>5.310955113548807</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>10053726575.07543</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1104686259076692</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>8.65055910314762e-07</v>
+        <v>0.02333505047873314</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>4.874123307672498</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>5881661111.038438</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1950627209457567</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2.426408505470868e-06</v>
+        <v>0.3136951672566678</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>2.174644935535479</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>11041495323.119</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.1036701458002024</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>4.18086889084916e-06</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>5.02356576757755</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>3961618185.39625</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.3477869586420503</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.566351525128604e-06</v>
+        <v>0.8379046581478589</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>6.046671839235222</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>10261580610.39046</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.1232914711715021</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>9.803046270570073e-07</v>
+        <v>0.06734808527218478</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>5.552362164164662</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>6766173378.856519</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.198984918744062</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1.963157837622092e-06</v>
+        <v>0.3271576886091255</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>5.908724953169019</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>5336001450.260069</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.2037193692942154</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.618438544384811e-06</v>
+        <v>0.3434081800175738</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>4.770663143122846</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>7613735724.579141</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.1544716224130581</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.244774723212027e-06</v>
+        <v>0.174370594958891</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>5.161512653643753</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>11380694361.48408</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1171518597768701</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1.943177199128366e-06</v>
+        <v>0.04627453066161975</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>2.650835719996808</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>9939336209.074198</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.1201732001891157</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>7.522297901285158e-06</v>
+        <v>0.05664495609770401</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>5.241981670515705</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>6895223263.871077</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1827245531847593</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.180291315968894e-06</v>
+        <v>0.2713457357709834</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>5.529371016486961</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>10000674176.12523</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1437948166967652</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>8.340473564429303e-07</v>
+        <v>0.1377236096911564</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>6.311070037528776</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>7166475358.765471</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.175808403284183</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>7.783763884988314e-06</v>
+        <v>0.2476067964055244</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>2.179296027584384</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>6513693727.963897</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1825696923536088</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.178311876524374e-06</v>
+        <v>0.2708141926532643</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>5.218990522838005</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>8809947227.279236</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.1733386512545108</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.270459701313066e-06</v>
+        <v>0.2391296386627141</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>6.701919548049685</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>5389337170.433375</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.2891890042713124</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>9.259528721245224e-07</v>
+        <v>0.6367734933026652</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>6.839866434115887</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>10013391716.27383</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.15669162402286</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.019599067739496e-05</v>
+        <v>0.1819905112944116</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>6.885848729471288</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>7609017023.85913</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1404532433885886</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2.724557649858845e-06</v>
+        <v>0.1262540193427126</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>1.202040266990662</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>11560159866.2501</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1207712424527984</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.222395789878095e-06</v>
+        <v>0.05869767173279491</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>1.44338304002583</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>11037534877.01443</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1056058769451692</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.53990364721162e-06</v>
+        <v>0.006644188593189494</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>5.115530358288352</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>5798599467.3925</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.2931715010770428</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>3.62900739794827e-06</v>
+        <v>0.6504429845013001</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>7.4606274214138</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_9.xlsx
+++ b/output/fit_clients/fit_round_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5737270409.602288</v>
+        <v>5381992999.80979</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2168644949900922</v>
+        <v>0.2321535962689208</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3885274076704844</v>
+        <v>0.4517771946632447</v>
       </c>
       <c r="I2" t="n">
-        <v>2.368354712412736</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.045902114638147</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7754965357132413</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.46402859962668</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>10035054324.94216</v>
+        <v>7952929254.741059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1448683188875891</v>
+        <v>0.197946359080401</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1414082902985753</v>
+        <v>0.3587477789513289</v>
       </c>
       <c r="I3" t="n">
-        <v>6.380043480561878</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.287401127383214</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8442621646183313</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.59784216498341</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4966146400.863405</v>
+        <v>11731672468.41822</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2990637025404219</v>
+        <v>0.1116375353578709</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6706673311795828</v>
+        <v>0.124023781879025</v>
       </c>
       <c r="I4" t="n">
-        <v>6.517990366628081</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.921771581162573</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7893330473190688</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.864889365218804</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4114718128.40687</v>
+        <v>6736525501.348577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3526710736226908</v>
+        <v>0.1598107644340518</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8546688565886262</v>
+        <v>0.2550348696560121</v>
       </c>
       <c r="I5" t="n">
-        <v>6.368547906723028</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.820085599612799</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6539228978928483</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.258372358244166</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>6696526561.305602</v>
+        <v>12190287968.05189</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1826700930402202</v>
+        <v>0.1104458289688099</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2711588071925644</v>
+        <v>0.1207828376173321</v>
       </c>
       <c r="I6" t="n">
-        <v>5.368432982743058</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.99788021647063</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7974856794238779</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.951833372006929</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6011899385.316789</v>
+        <v>3695941618.133593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1956297061245689</v>
+        <v>0.4337370136299745</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3156412827941312</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.958524636086123</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.270051213365733</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8497615941989338</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.725180670612943</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>3872599372.775558</v>
+        <v>6715571737.660966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3950121385532376</v>
+        <v>0.1794217152417276</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.3083684752067548</v>
       </c>
       <c r="I8" t="n">
-        <v>6.713415121888535</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.902105205010385</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7648866525595356</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.395627846180325</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7936575200.155078</v>
+        <v>9886961205.85228</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.146537912219023</v>
+        <v>0.1348512937636301</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1471389895213587</v>
+        <v>0.1871555211967539</v>
       </c>
       <c r="I9" t="n">
-        <v>5.104034784449502</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.20732042632453</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7945964012115322</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.684607597906115</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8149124525.82418</v>
+        <v>13528291800.58707</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1777519370835115</v>
+        <v>0.1010712660663236</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2542777667691274</v>
+        <v>0.09528793709184948</v>
       </c>
       <c r="I10" t="n">
-        <v>6.357052332884177</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.881059367754354</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8020583492357858</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.160107616961362</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7571146766.899091</v>
+        <v>7695542891.107443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1421936891656546</v>
+        <v>0.1970785988019809</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1322279119512572</v>
+        <v>0.3563878329774832</v>
       </c>
       <c r="I11" t="n">
-        <v>1.910090427914181</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.956679321161161</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8330054096702865</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.703428872244569</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>8889909550.702518</v>
+        <v>7920406212.129255</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1426094104523048</v>
+        <v>0.1607270518588429</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1336548304765335</v>
+        <v>0.2575267892250412</v>
       </c>
       <c r="I12" t="n">
-        <v>5.563857738003512</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.953533203638312</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7809790588464569</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.666047973290826</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6140006533.046551</v>
+        <v>7450073100.748633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2017866696609599</v>
+        <v>0.1923211102258879</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3367743967617085</v>
+        <v>0.3434494486218302</v>
       </c>
       <c r="I13" t="n">
-        <v>2.476266550704347</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.964844776537764</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8159694733205411</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.354544689873059</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>3919787453.856198</v>
+        <v>4338653720.830882</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3535031749328198</v>
+        <v>0.3712960179941479</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8575249546823683</v>
+        <v>0.830186538934494</v>
       </c>
       <c r="I14" t="n">
-        <v>6.081158560751772</v>
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9355510968513271</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4404065956508833</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.36221383738951</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9904121718135867</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.44602959888222</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>5611866165.781663</v>
+        <v>8942173989.908018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2618518950006571</v>
+        <v>0.1098470294928922</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5429418111193541</v>
+        <v>0.1191543528301445</v>
       </c>
       <c r="I15" t="n">
-        <v>6.449016923594979</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.909057415819961</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6188660438200181</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.4682634605804</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>6206525621.994488</v>
+        <v>13075367618.65115</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.251956718660492</v>
+        <v>0.1019680324779687</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5089776844699113</v>
+        <v>0.09772676764825025</v>
       </c>
       <c r="I16" t="n">
-        <v>6.862857581793588</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.329044987977825</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7320533598974833</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.312022209971843</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6347102615.379009</v>
+        <v>5554554851.157236</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.182821964653349</v>
+        <v>0.2584231785380503</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2716800901414921</v>
+        <v>0.5232195001620763</v>
       </c>
       <c r="I17" t="n">
-        <v>1.864263802196149</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.202806118584261</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8165145094612343</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.127484070640422</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>8509629075.639911</v>
+        <v>4117788606.941345</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1434417092860431</v>
+        <v>0.2665324801156393</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1365116065487829</v>
+        <v>0.5452734176836002</v>
       </c>
       <c r="I18" t="n">
-        <v>5.356937408904208</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.953567389932668</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7377781755876928</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.801996121821188</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>11415130561.2031</v>
+        <v>13499082137.42958</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1151921804967434</v>
+        <v>0.09702104088755359</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0395481426747431</v>
+        <v>0.08427301414422482</v>
       </c>
       <c r="I19" t="n">
-        <v>5.770778067102816</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.294007035102534</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7893330473190688</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.492653911278843</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>9438786932.006359</v>
+        <v>3463963519.489787</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1623453480874663</v>
+        <v>0.4272433418172906</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2013963099957294</v>
+        <v>0.9823399214841688</v>
       </c>
       <c r="I20" t="n">
-        <v>6.724910695727385</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.53866176574012</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8256529912496604</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.974398059253087</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>6263642902.286485</v>
+        <v>11272644322.50494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2258223564251501</v>
+        <v>0.08760234083040434</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4192743018974737</v>
+        <v>0.0586580789697335</v>
       </c>
       <c r="I21" t="n">
-        <v>6.207609872979124</v>
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9439557205595765</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2001062843086005</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.596490984400031</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7364480434644655</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.13246988488928</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8009079636.6267</v>
+        <v>13441040384.65278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1792248029892957</v>
+        <v>0.117707522239609</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2593332202994143</v>
+        <v>0.1405316141215133</v>
       </c>
       <c r="I22" t="n">
-        <v>6.299574463689926</v>
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1657916361955795</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.969004942101356</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7927214214072689</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.88542348604402</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>9383649358.79331</v>
+        <v>7773118822.935958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.133430861717643</v>
+        <v>0.1812955458550065</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1021504508712144</v>
+        <v>0.3134645128123564</v>
       </c>
       <c r="I23" t="n">
-        <v>5.494884294970411</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.264674750350955</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8110254696695722</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.95583464304049</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10053274805.22024</v>
+        <v>12333146690.94128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1367892330254344</v>
+        <v>0.1208477404306499</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1136776985434651</v>
+        <v>0.1490716976690528</v>
       </c>
       <c r="I24" t="n">
-        <v>6.035176265396371</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.08860404151697</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.827769257480627</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.466781108095571</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10867785982.93351</v>
+        <v>6448575851.037329</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1217167831679127</v>
+        <v>0.2002549554863761</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06194313836182243</v>
+        <v>0.3650261981518881</v>
       </c>
       <c r="I25" t="n">
-        <v>2.392022296229562</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.125601025786754</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7851819770989803</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.578038516192851</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>7456964511.707194</v>
+        <v>13388133488.47712</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1468298552689951</v>
+        <v>0.1156292242927202</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1481410525855031</v>
+        <v>0.1348795106613944</v>
       </c>
       <c r="I26" t="n">
-        <v>4.805149864639397</v>
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9394482352669441</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5826368384641886</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.385850144369965</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.010057262828841</v>
+      </c>
+      <c r="N26" t="n">
+        <v>14.81529511220685</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>6315044844.077442</v>
+        <v>6661646437.660843</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2318651800823291</v>
+        <v>0.2308110981854965</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4400156430274542</v>
+        <v>0.4481261598951622</v>
       </c>
       <c r="I27" t="n">
-        <v>6.426025775917279</v>
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9254453978400157</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3792495460312285</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.182462851937006</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.002041424635411</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.85836564077122</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8975724839.387936</v>
+        <v>7670278905.820944</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1284054068750388</v>
+        <v>0.1973862278790183</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08490111858266844</v>
+        <v>0.3572244557405277</v>
       </c>
       <c r="I28" t="n">
-        <v>5.058052489094101</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.934832378366317</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8324852448168654</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.714872517970992</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>5448262579.330823</v>
+        <v>5834384447.88755</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2504839240269543</v>
+        <v>0.277455665539166</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5039224755739314</v>
+        <v>0.5749799254633235</v>
       </c>
       <c r="I29" t="n">
-        <v>5.98919397004097</v>
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9388601757160834</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2721168635122363</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.075330169418013</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.026327162606442</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.45121308271082</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6641219612.079862</v>
+        <v>11186760476.02786</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.231915432701321</v>
+        <v>0.1116899778695939</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4401881297277647</v>
+        <v>0.1241664036346837</v>
       </c>
       <c r="I30" t="n">
-        <v>2.67653032758101</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.881686249314988</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7754965357132413</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.628244464949837</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>10727986511.45893</v>
+        <v>9196699297.789972</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1372202676082416</v>
+        <v>0.1068069334653625</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1151571783078966</v>
+        <v>0.1108865598017113</v>
       </c>
       <c r="I31" t="n">
-        <v>6.46051249743383</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9335840868429101</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.662385398169767</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7283382032121107</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10.90437866607245</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>4081904074.689082</v>
+        <v>10841473285.4159</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2874851291279755</v>
+        <v>0.09591849766386319</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6309251254541579</v>
+        <v>0.08127455649820736</v>
       </c>
       <c r="I32" t="n">
-        <v>5.150017079804903</v>
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9422805712867066</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1591481000841323</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.555532800175562</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.760740546468889</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11.65927812920222</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>8542596149.113552</v>
+        <v>11289349172.75982</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1284766821282881</v>
+        <v>0.1204199984601648</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08514576321002135</v>
+        <v>0.1479084179405442</v>
       </c>
       <c r="I33" t="n">
-        <v>4.816645438478247</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.990862332671216</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8003507371180026</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.016152409688836</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>9755357584.027643</v>
+        <v>7256530609.129486</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1441887104479936</v>
+        <v>0.1530512885321148</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1390756075528664</v>
+        <v>0.2366519148967482</v>
       </c>
       <c r="I34" t="n">
-        <v>6.173123151462574</v>
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9350190763207171</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3567457983493045</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.753130498440735</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7882881482943774</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.01263246744681</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9499087155.196041</v>
+        <v>10378788472.85544</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1307063341682095</v>
+        <v>0.154203671669944</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.09279880360715834</v>
+        <v>0.2397859163186605</v>
       </c>
       <c r="I35" t="n">
-        <v>2.229246295643076</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.233096845192406</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8492650716012626</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.752204586832846</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>9323846617.833052</v>
+        <v>6548140891.301379</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1657513431252878</v>
+        <v>0.1852094495417878</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2130870209901748</v>
+        <v>0.3241086981678512</v>
       </c>
       <c r="I36" t="n">
-        <v>6.782388564921636</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.937512370262153</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7667839751286164</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.398167132310174</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>8487735887.235232</v>
+        <v>7883234565.718047</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1416514399096875</v>
+        <v>0.1255993858543538</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1303666998038319</v>
+        <v>0.1619941910876597</v>
       </c>
       <c r="I37" t="n">
-        <v>5.276468392032256</v>
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9230155426885945</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2183302138134914</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.614714913904921</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7266353828126904</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10.91799274234889</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>5210776995.308521</v>
+        <v>10248760601.29738</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2055989943466326</v>
+        <v>0.1229345321853364</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3498597904931379</v>
+        <v>0.1547469007432163</v>
       </c>
       <c r="I38" t="n">
-        <v>4.701689700089744</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.978032649453388</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7779443467448356</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.580854285443325</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7065555857.269779</v>
+        <v>7688425124.537979</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1649733684860307</v>
+        <v>0.1952168936665289</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2104167068624186</v>
+        <v>0.3513247716134657</v>
       </c>
       <c r="I39" t="n">
-        <v>1.982285240522941</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.672374980871474</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8298729741533151</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.925084502194828</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>4031374178.952949</v>
+        <v>5732811611.216747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3456676106314527</v>
+        <v>0.2426202331991147</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8306302244468641</v>
+        <v>0.4802420809888637</v>
       </c>
       <c r="I40" t="n">
-        <v>6.115645282268323</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.19372727719205</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8071309395454929</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.948891513717808</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10243370683.97611</v>
+        <v>9817484862.778597</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1250449436535287</v>
+        <v>0.119530280555775</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07336669064196751</v>
+        <v>0.1454887563836152</v>
       </c>
       <c r="I41" t="n">
-        <v>5.621335607197762</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.043357518006478</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7571853142136102</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.100348766265729</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>8721569691.261814</v>
+        <v>12331556215.3672</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1396556346067311</v>
+        <v>0.09176266646620516</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1235163131359262</v>
+        <v>0.0699724292324243</v>
       </c>
       <c r="I42" t="n">
-        <v>2.200335957042357</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.994739594483603</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7466236553421277</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.937733512358951</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8684162805.56016</v>
+        <v>3830995157.441333</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1468930233762144</v>
+        <v>0.2584522765779984</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.148357870307598</v>
+        <v>0.5232986346925798</v>
       </c>
       <c r="I43" t="n">
-        <v>5.598344459520062</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.049423101429353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.4923916115588343</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.798409129747334</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>6019606603.103605</v>
+        <v>7907903635.241343</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2502072559398575</v>
+        <v>0.1950985724110831</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5029728421740826</v>
+        <v>0.3510029871559907</v>
       </c>
       <c r="I44" t="n">
-        <v>6.609954957338883</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.91752127796561</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8381658698541823</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.845796119118036</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6861554079.84224</v>
+        <v>14915000776.07751</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2282857792525063</v>
+        <v>0.06603356277256701</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4277297353352633</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.874353155632438</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9303852272025853</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.630480903645527</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7279551641388307</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10.92862237913109</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5052563778.951624</v>
+        <v>11793101053.09028</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2125554366030859</v>
+        <v>0.131934565217033</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3737370290289165</v>
+        <v>0.1792232362541027</v>
       </c>
       <c r="I46" t="n">
-        <v>4.713185273928595</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.305393366343269</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8407185346495362</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.508977326647456</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8914860125.807058</v>
+        <v>7475500596.476942</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1395658745557</v>
+        <v>0.1468161758313874</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1232082214317992</v>
+        <v>0.2196950093083223</v>
       </c>
       <c r="I47" t="n">
-        <v>5.46039757345386</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.04107382175452</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7377781755876928</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7.714489689999335</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>10133252808.36648</v>
+        <v>7354117973.63874</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1512192756836015</v>
+        <v>0.2076529606234213</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1632072652283446</v>
+        <v>0.3851456860701945</v>
       </c>
       <c r="I48" t="n">
-        <v>6.724910695727385</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.029193216949626</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8350785277339983</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.672377337730339</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>7149466223.164021</v>
+        <v>13523247382.95742</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612052654037077</v>
+        <v>0.08348269154809375</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1974830990199091</v>
+        <v>0.04745435142052384</v>
       </c>
       <c r="I49" t="n">
-        <v>5.058052489094101</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.131980808945997</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7459518841630367</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7.787056874314738</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5994977001.434152</v>
+        <v>7717034818.782439</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2311363846214115</v>
+        <v>0.1768428187829943</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.437514131130625</v>
+        <v>0.3013549526175055</v>
       </c>
       <c r="I50" t="n">
-        <v>6.081158560751772</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.854593293319247</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8014900881220974</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.175208469122701</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5873304809.709928</v>
+        <v>9067863174.974012</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2127335581041823</v>
+        <v>0.1484767065868149</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3743484118900454</v>
+        <v>0.2242109602779297</v>
       </c>
       <c r="I51" t="n">
-        <v>5.48338872113156</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.899781631113155</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7974856794238779</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.049931957364404</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6941877827.55057</v>
+        <v>5230019602.028931</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2018724161981503</v>
+        <v>0.2143584547111605</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3370687125120063</v>
+        <v>0.4033818328131837</v>
       </c>
       <c r="I52" t="n">
-        <v>6.150132003784874</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.336336594207306</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6690539928419896</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8.044743262632487</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>5782882536.078989</v>
+        <v>12495504358.26404</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2060948744098303</v>
+        <v>0.1106828408318959</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3515618453823485</v>
+        <v>0.1214274110161765</v>
       </c>
       <c r="I53" t="n">
-        <v>5.230486096676855</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.869505314979076</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8054483507702535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.239461700425995</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5683655116.359533</v>
+        <v>9192513108.631081</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2548575943376031</v>
+        <v>0.173248501381486</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5189346276819052</v>
+        <v>0.2915799086435447</v>
       </c>
       <c r="I54" t="n">
-        <v>6.357052332884177</v>
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9552927706852125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2278571680870985</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.149664409825725</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9941814351152068</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.73396429247841</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>5694134854.533188</v>
+        <v>3831256065.051584</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2608287594062888</v>
+        <v>0.3452632576732221</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5394300084276097</v>
+        <v>0.7593882903452496</v>
       </c>
       <c r="I55" t="n">
-        <v>6.517990366628081</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.23828555799904</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6500355698378476</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.762425838757911</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8375015641.066898</v>
+        <v>14866477172.64655</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1832787669641248</v>
+        <v>0.08422092237855335</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2732480148558776</v>
+        <v>0.0494620313287167</v>
       </c>
       <c r="I56" t="n">
-        <v>6.736406269566236</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.063381734315589</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7761101784631503</v>
+      </c>
+      <c r="N56" t="n">
+        <v>8.458821834947416</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6755751706.78186</v>
+        <v>12623462223.34676</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1616823230645811</v>
+        <v>0.07802064303551137</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1991205480411279</v>
+        <v>0.03259985794257029</v>
       </c>
       <c r="I57" t="n">
-        <v>4.793654290800546</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.9444563720191401</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.04696001540132</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8497661023527372</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11.94836203165342</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>10000400311.53458</v>
+        <v>5631912090.057612</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1139389038942533</v>
+        <v>0.2874304488626065</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03524640576875415</v>
+        <v>0.6021071751537506</v>
       </c>
       <c r="I58" t="n">
-        <v>5.000574619899851</v>
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.369002223010996</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.172215528916773</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8007943337835715</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10.84367114675466</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>4627256912.435341</v>
+        <v>10946127392.02465</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2943607467178933</v>
+        <v>0.1442968927212394</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6545249420303632</v>
+        <v>0.2128436101597052</v>
       </c>
       <c r="I59" t="n">
-        <v>5.97769839620212</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.201776713050893</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8452682820877693</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.703588928704491</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>5451346326.987852</v>
+        <v>13003980590.96797</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2815749445968782</v>
+        <v>0.07815478598190899</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6106390538334862</v>
+        <v>0.03296467079946577</v>
       </c>
       <c r="I60" t="n">
-        <v>6.736406269566236</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.834163151977695</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7156226042554167</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.478288933130639</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9568277677.248285</v>
+        <v>10459890050.49025</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1105981238939477</v>
+        <v>0.09591175099904416</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02377953836410389</v>
+        <v>0.08125620838424949</v>
       </c>
       <c r="I61" t="n">
-        <v>4.644211830895493</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.872510732384963</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7118956787577643</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7.365402842770323</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>8717861404.384506</v>
+        <v>10650021320.4222</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1727659089926007</v>
+        <v>0.1431438430152893</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.237163762557804</v>
+        <v>0.2097077959505609</v>
       </c>
       <c r="I62" t="n">
-        <v>6.609954957338883</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.505498175059713</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8345613741133381</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9.185729307207048</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>5949422703.700788</v>
+        <v>11155831012.81749</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2469950217331042</v>
+        <v>0.1399408469173036</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4919471943558629</v>
+        <v>0.2009969826837368</v>
       </c>
       <c r="I63" t="n">
-        <v>6.449016923594979</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.157744835978606</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8417345551961262</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.676946267943917</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4530532131.279607</v>
+        <v>14464233798.27951</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3018015412714472</v>
+        <v>0.08620087710061131</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.680064667640263</v>
+        <v>0.05484668224086105</v>
       </c>
       <c r="I64" t="n">
-        <v>6.000689543879821</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.177530345719452</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7748817578713273</v>
+      </c>
+      <c r="N64" t="n">
+        <v>8.320104811707093</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11375276776.62497</v>
+        <v>9678023261.142912</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1061546733070591</v>
+        <v>0.1036602561215094</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.008527872976288757</v>
+        <v>0.1023289100529376</v>
       </c>
       <c r="I65" t="n">
-        <v>5.299459539709956</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9345314501250361</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.973331079137284</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8005828326063344</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.0383255729894</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11157383777.85583</v>
+        <v>7504184642.23555</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.110340678828616</v>
+        <v>0.1623116178598111</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02289588591531349</v>
+        <v>0.2618361477509766</v>
       </c>
       <c r="I66" t="n">
-        <v>5.402919704259609</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.353293336335216</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7680427966240408</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.007562596145601</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7664952132.967497</v>
+        <v>5527639922.949161</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1568568190829038</v>
+        <v>0.1824404563352878</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1825575255393638</v>
+        <v>0.316578191722934</v>
       </c>
       <c r="I67" t="n">
-        <v>5.276468392032256</v>
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9425510615361198</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1804005374762426</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.576785237567673</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7460177796132681</v>
+      </c>
+      <c r="N67" t="n">
+        <v>11.34357035469769</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7597941219.234826</v>
+        <v>7718536424.798782</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1537584861860319</v>
+        <v>0.1740935063391932</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1719228316952178</v>
+        <v>0.2938779696373612</v>
       </c>
       <c r="I68" t="n">
-        <v>5.127025932127203</v>
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9368061002495868</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4437422311190332</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.481561057976903</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8273864277575196</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.06616749717349</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4429845385.035028</v>
+        <v>4371969939.441343</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3216699537220377</v>
+        <v>0.2815923524298782</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7482608526901557</v>
+        <v>0.586229988200201</v>
       </c>
       <c r="I69" t="n">
-        <v>6.253592168334525</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.873911042318036</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7711689649914214</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8.549468257510391</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5461310843.311149</v>
+        <v>12850950306.16157</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2431706907191581</v>
+        <v>0.08214288786829022</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4788205901962357</v>
+        <v>0.0438106443063279</v>
       </c>
       <c r="I70" t="n">
-        <v>2.735146236075353</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.858664618525483</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7265399734273303</v>
+      </c>
+      <c r="N70" t="n">
+        <v>7.672134850021124</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>7999091983.305262</v>
+        <v>10229436291.29733</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1365512025964555</v>
+        <v>0.1467246510227446</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1128606847421605</v>
+        <v>0.2194461000080986</v>
       </c>
       <c r="I71" t="n">
-        <v>4.793654290800546</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.670876384553559</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8298729741533151</v>
+      </c>
+      <c r="N71" t="n">
+        <v>8.926583098512744</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>7598203872.180903</v>
+        <v>7840718429.541545</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1609926701859989</v>
+        <v>0.177728035067506</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1967533888408173</v>
+        <v>0.3037623716462025</v>
       </c>
       <c r="I72" t="n">
-        <v>1.97332285977316</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.111520010645883</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8076899877691138</v>
+      </c>
+      <c r="N72" t="n">
+        <v>9.042279744736394</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>10514902426.83157</v>
+        <v>9921517034.069157</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1267980867418997</v>
+        <v>0.1507503020822385</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07938416540351713</v>
+        <v>0.2303941916023082</v>
       </c>
       <c r="I73" t="n">
-        <v>5.851247083974767</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.143965465035155</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8288226732147926</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.432487999260697</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>4207491534.958363</v>
+        <v>3788199429.411946</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2820168882435416</v>
+        <v>0.2682866461858284</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6121559777842261</v>
+        <v>0.5500440176496837</v>
       </c>
       <c r="I74" t="n">
-        <v>5.207494948999154</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.091043279445246</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5094200029849398</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.09735678025355</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6248602168.571862</v>
+        <v>14186173590.04097</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2381034157500292</v>
+        <v>0.07311897273893464</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4614277148292287</v>
+        <v>0.01926935945215073</v>
       </c>
       <c r="I75" t="n">
-        <v>6.529485940466931</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.965463080094541</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7214931477048111</v>
+      </c>
+      <c r="N75" t="n">
+        <v>7.464399874001681</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10014897222.07768</v>
+        <v>6954681154.915613</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1161279176621169</v>
+        <v>0.2271120896582879</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04275995967555116</v>
+        <v>0.4380663997308687</v>
       </c>
       <c r="I76" t="n">
-        <v>2.525013042497635</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.161700197942049</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8452682820877693</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.743665443813335</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>11327292187.87902</v>
+        <v>9669044371.191195</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1202478736672408</v>
+        <v>0.1243452779658597</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05690126476580741</v>
+        <v>0.158583540778097</v>
       </c>
       <c r="I77" t="n">
-        <v>2.865390337838067</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.93020858068367</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7642517648464451</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8.354826716245231</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10691894569.15644</v>
+        <v>8239482808.51467</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1171044487860849</v>
+        <v>0.1456014470665867</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.04611179754396227</v>
+        <v>0.2163914537883287</v>
       </c>
       <c r="I78" t="n">
-        <v>1.994253235283694</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.856056653079755</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7636156440933038</v>
+      </c>
+      <c r="N78" t="n">
+        <v>8.41625622878632</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6155403995.519485</v>
+        <v>13240793769.45192</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1808558383511996</v>
+        <v>0.1054419315268733</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2649315734461455</v>
+        <v>0.1071743239352643</v>
       </c>
       <c r="I79" t="n">
-        <v>4.885618881511348</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.157942726119216</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8082481345668077</v>
+      </c>
+      <c r="N79" t="n">
+        <v>9.007019965216937</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>10209412458.1035</v>
+        <v>8074143384.7353</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1185335772226014</v>
+        <v>0.1823223975416509</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05101712692340376</v>
+        <v>0.3162571210520942</v>
       </c>
       <c r="I80" t="n">
-        <v>5.310955113548807</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.314725286799806</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8240574457771965</v>
+      </c>
+      <c r="N80" t="n">
+        <v>9.166423628744123</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>10053726575.07543</v>
+        <v>7677376776.15085</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104686259076692</v>
+        <v>0.1320377987894236</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02333505047873314</v>
+        <v>0.1795039885074469</v>
       </c>
       <c r="I81" t="n">
-        <v>4.874123307672498</v>
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9484720906842244</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2153926859857033</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.611777386077133</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.751585243536956</v>
+      </c>
+      <c r="N81" t="n">
+        <v>11.41992748466199</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>5881661111.038438</v>
+        <v>6555077488.864141</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1950627209457567</v>
+        <v>0.198200165018206</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3136951672566678</v>
+        <v>0.3594380252278137</v>
       </c>
       <c r="I82" t="n">
-        <v>2.174644935535479</v>
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9389369507112577</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2631313625868179</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.300950189444687</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8113224557414178</v>
+      </c>
+      <c r="N82" t="n">
+        <v>12.92549892538367</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>11041495323.119</v>
+        <v>10074100632.62503</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1036701458002024</v>
+        <v>0.1476869821194468</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.2220632391577536</v>
       </c>
       <c r="I83" t="n">
-        <v>5.02356576757755</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.227631312914605</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.827241374534986</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9.317196177785116</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>3961618185.39625</v>
+        <v>11606749158.40913</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3477869586420503</v>
+        <v>0.1365352975558929</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8379046581478589</v>
+        <v>0.1917353090348501</v>
       </c>
       <c r="I84" t="n">
-        <v>6.046671839235222</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>7.168589202029428</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8462716129496409</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9.75684305696339</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10261580610.39046</v>
+        <v>5155638818.941016</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1232914711715021</v>
+        <v>0.2438703028188958</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06734808527218478</v>
+        <v>0.4836417488920781</v>
       </c>
       <c r="I85" t="n">
-        <v>5.552362164164662</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.88296539169471</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7773340789563716</v>
+      </c>
+      <c r="N85" t="n">
+        <v>8.663716187432723</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>6766173378.856519</v>
+        <v>7833992909.236656</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.198984918744062</v>
+        <v>0.1969392528018426</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3271576886091255</v>
+        <v>0.3560088699848503</v>
       </c>
       <c r="I86" t="n">
-        <v>5.908724953169019</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.051954600297838</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8381658698541823</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9.711362796785808</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>5336001450.260069</v>
+        <v>11816536842.4447</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2037193692942154</v>
+        <v>0.1316728988150896</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3434081800175738</v>
+        <v>0.1785116127941292</v>
       </c>
       <c r="I87" t="n">
-        <v>4.770663143122846</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7.069946789120051</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8407185346495362</v>
+      </c>
+      <c r="N87" t="n">
+        <v>9.744423903870674</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7613735724.579141</v>
+        <v>10601436727.55067</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1544716224130581</v>
+        <v>0.1092088185548685</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.174370594958891</v>
+        <v>0.1174186853063951</v>
       </c>
       <c r="I88" t="n">
-        <v>5.161512653643753</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.040787028690019</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7532651212662078</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.024515396634136</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11380694361.48408</v>
+        <v>5220526278.709822</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1171518597768701</v>
+        <v>0.2900104968677919</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.04627453066161975</v>
+        <v>0.6091238294689854</v>
       </c>
       <c r="I89" t="n">
-        <v>2.650835719996808</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.967763930370737</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8324852448168654</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.681940965966572</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>9939336209.074198</v>
+        <v>5839512722.258655</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1201732001891157</v>
+        <v>0.1933307013266224</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.05664495609770401</v>
+        <v>0.3461951152680922</v>
       </c>
       <c r="I90" t="n">
-        <v>5.241981670515705</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.308430245551667</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7459518841630367</v>
+      </c>
+      <c r="N90" t="n">
+        <v>7.610607437709068</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>6895223263.871077</v>
+        <v>9922176602.483835</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1827245531847593</v>
+        <v>0.1198530431016824</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2713457357709834</v>
+        <v>0.1463665358691077</v>
       </c>
       <c r="I91" t="n">
-        <v>5.529371016486961</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.830557127039228</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7610587133791146</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.390617140543064</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10000674176.12523</v>
+        <v>4054434101.220624</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1437948166967652</v>
+        <v>0.2448550858678709</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1377236096911564</v>
+        <v>0.4863199479861545</v>
       </c>
       <c r="I92" t="n">
-        <v>6.311070037528776</v>
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.9486983018515115</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.09285524521254136</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4.014662486951168</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.8024380491942776</v>
+      </c>
+      <c r="N92" t="n">
+        <v>12.03409849693439</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7166475358.765471</v>
+        <v>7174328819.136126</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.175808403284183</v>
+        <v>0.1445819485208514</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2476067964055244</v>
+        <v>0.2136188430245242</v>
       </c>
       <c r="I93" t="n">
-        <v>2.179296027584384</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.214139292290025</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7214931477048111</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7.215723661806197</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6513693727.963897</v>
+        <v>4331771723.879914</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1825696923536088</v>
+        <v>0.309602574994134</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2708141926532643</v>
+        <v>0.6624061091991794</v>
       </c>
       <c r="I94" t="n">
-        <v>5.218990522838005</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.27394281222554</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7963329024206193</v>
+      </c>
+      <c r="N94" t="n">
+        <v>8.652715236186845</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>8809947227.279236</v>
+        <v>13264138812.20147</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1733386512545108</v>
+        <v>0.09952945899402034</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2391296386627141</v>
+        <v>0.09109486501513082</v>
       </c>
       <c r="I95" t="n">
-        <v>6.701919548049685</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.260525334068666</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7916823991331133</v>
+      </c>
+      <c r="N95" t="n">
+        <v>8.573122648593602</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5389337170.433375</v>
+        <v>7043767674.594649</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2891890042713124</v>
+        <v>0.2149428388248378</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.6367734933026652</v>
+        <v>0.4049711138284002</v>
       </c>
       <c r="I96" t="n">
-        <v>6.839866434115887</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.018765749404662</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8324852448168654</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.630939146932647</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>10013391716.27383</v>
+        <v>5046498115.132188</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.15669162402286</v>
+        <v>0.3010495922795376</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1819905112944116</v>
+        <v>0.6391455640651792</v>
       </c>
       <c r="I97" t="n">
-        <v>6.885848729471288</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.918169161740706</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8335248177276624</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9.75232719281254</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>7609017023.85913</v>
+        <v>8072526586.518821</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1404532433885886</v>
+        <v>0.1372559084352068</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1262540193427126</v>
+        <v>0.1936950700260338</v>
       </c>
       <c r="I98" t="n">
-        <v>1.202040266990662</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.919814969823326</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7405261733779562</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.890708497735799</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11560159866.2501</v>
+        <v>14931283040.43587</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1207712424527984</v>
+        <v>0.07315417081318114</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.05869767173279491</v>
+        <v>0.0193650835313358</v>
       </c>
       <c r="I99" t="n">
-        <v>1.44338304002583</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.986921112787034</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7363951740570868</v>
+      </c>
+      <c r="N99" t="n">
+        <v>7.740982368354702</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>11037534877.01443</v>
+        <v>13628547100.32322</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1056058769451692</v>
+        <v>0.09648378292421314</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.006644188593189494</v>
+        <v>0.08281189659939983</v>
       </c>
       <c r="I100" t="n">
-        <v>5.115530358288352</v>
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9712613849317975</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2870176603166892</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.683402360408119</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8822651308928678</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.96190025744924</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>5798599467.3925</v>
+        <v>7517580681.24828</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2931715010770428</v>
+        <v>0.2104548826388244</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6504429845013001</v>
+        <v>0.3927657451391796</v>
       </c>
       <c r="I101" t="n">
-        <v>7.4606274214138</v>
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9826357767764232</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4714472017683978</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.274660507674175</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.034740185166739</v>
+      </c>
+      <c r="N101" t="n">
+        <v>15.42014319566061</v>
       </c>
     </row>
   </sheetData>
